--- a/tests/features/testFiles/invalid_columns.xlsx
+++ b/tests/features/testFiles/invalid_columns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adi/code/ensov2/vendor/laravel-enso/dataimport/tests/features/testFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89594AD-52D2-1748-AB41-E04E722F80D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899D98E-EE61-5F4B-A31C-4A9B3CB86715}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33400" yWindow="4200" windowWidth="28700" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>invalid_column</t>
@@ -350,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -362,23 +359,20 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
